--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471974.360873578</v>
+        <v>469494.3720284453</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>280.9667343657028</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.4602625293657</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.4040920724996</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0526494037118</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>135.9082871502401</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193.6715712764668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476234</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>102.3247335807564</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.4424591077296</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>124.2781875329285</v>
       </c>
       <c r="F8" t="n">
-        <v>223.4332446498228</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>124.6940884171425</v>
+        <v>0.6293919502455964</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>33.84547402811492</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983453</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
-        <v>38.61213096654814</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>80.08971311158712</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826188967</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>122.6028762599915</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016484</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>87.21471514852939</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.902695549579</v>
+        <v>335.0515687555817</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.902695549579</v>
+        <v>335.0515687555817</v>
       </c>
       <c r="D2" t="n">
-        <v>756.6369969428285</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E2" t="n">
-        <v>756.6369969428285</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F2" t="n">
-        <v>345.651092153221</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G2" t="n">
-        <v>345.651092153221</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1485.256499056595</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1111.790740795515</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>721.6514088197035</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
@@ -4419,19 +4419,19 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.179281925625</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="C4" t="n">
-        <v>1295.243098997719</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>1145.126459585383</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>1145.126459585383</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936614</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2425.0582302686</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2202.079749463335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1912.961411967173</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1912.961411967173</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1912.961411967173</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>1684.971861069155</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>1464.179281925625</v>
+        <v>342.4631083446099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482648</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542236</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.34427854677</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>782.4929502983425</v>
+        <v>528.555433640143</v>
       </c>
       <c r="C7" t="n">
-        <v>782.4929502983425</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>632.3763108860068</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>484.4632173036136</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>337.5732698057033</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>169.8704331804222</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>782.4929502983425</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>782.4929502983425</v>
+        <v>528.555433640143</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.124011696102</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.124011696102</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D8" t="n">
-        <v>1004.858313089352</v>
+        <v>953.6440892486883</v>
       </c>
       <c r="E8" t="n">
-        <v>1004.858313089352</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.4316570185995</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="C10" t="n">
-        <v>490.4954740906926</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="D10" t="n">
-        <v>340.3788346783568</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="E10" t="n">
-        <v>192.4657410959637</v>
+        <v>67.14786587687595</v>
       </c>
       <c r="F10" t="n">
-        <v>192.4657410959637</v>
+        <v>67.14786587687595</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>396.7094242895088</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961529</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861993</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357061</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400785</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121716</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998359</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998359</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="S19" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854713</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648826</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138484</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703182</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D22" t="n">
-        <v>565.7099969556945</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E22" t="n">
-        <v>565.7099969556945</v>
+        <v>113.9333885650321</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650321</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703073</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424004</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,52 +6932,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>98.24448441976875</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.01690201652</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73.71630725498017</v>
       </c>
       <c r="E2" t="n">
-        <v>75.33682265771787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>9.558290033039725</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>114.7699989900974</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294566</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.471675939627816e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294906</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182139</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382458595</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.4141550350965</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>65.33133491134413</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303792</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>26.01259675822082</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>59.21924749803978</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393248</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>969829.6791488501</v>
+        <v>969829.6791488496</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631201</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="I2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="J2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.027935512</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455681</v>
+        <v>95375.52669455647</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,10 +26430,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768883</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,22 +26442,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768981</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948484.9858472011</v>
+        <v>-948671.3792357399</v>
       </c>
       <c r="C6" t="n">
-        <v>-10512.0205810849</v>
+        <v>-10512.02058108491</v>
       </c>
       <c r="D6" t="n">
-        <v>192926.721031021</v>
+        <v>192926.7210310208</v>
       </c>
       <c r="E6" t="n">
-        <v>-53087.50110027827</v>
+        <v>-53122.23902571412</v>
       </c>
       <c r="F6" t="n">
-        <v>272324.9607070771</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="G6" t="n">
-        <v>272324.960707077</v>
+        <v>272290.222781641</v>
       </c>
       <c r="H6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.222781642</v>
       </c>
       <c r="I6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="J6" t="n">
-        <v>104719.7828970943</v>
+        <v>104685.0449716586</v>
       </c>
       <c r="K6" t="n">
-        <v>223214.8680010225</v>
+        <v>223180.1300755867</v>
       </c>
       <c r="L6" t="n">
-        <v>272324.9607070768</v>
+        <v>272290.2227816413</v>
       </c>
       <c r="M6" t="n">
-        <v>187269.932771565</v>
+        <v>187235.1948461293</v>
       </c>
       <c r="N6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="O6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="P6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816411</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>190.816623302254</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>190.816623302254</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>190.816623302254</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.5935474145439</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.8368766449134</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.19417169491604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>58.7541732114974</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>161.0114703442161</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408802</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>42.43028133356438</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>96.14219424436517</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6521825393332</v>
       </c>
       <c r="F8" t="n">
-        <v>183.4428010918886</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>41.33171984188574</v>
+        <v>165.3964163087826</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.130616029827952e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.032981521760424e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.744763607090703e-12</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614906</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.98578090481</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32397,31 +32397,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>163.1438255932938</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832324</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.000239683233</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,13 +34454,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34787,16 +34787,16 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>489.4415840126426</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>270.4976243473745</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394724</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187884</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899136</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>20.54758114884936</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998991</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998997</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
